--- a/biology/Botanique/Chêne_de_Breslon/Chêne_de_Breslon.xlsx
+++ b/biology/Botanique/Chêne_de_Breslon/Chêne_de_Breslon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Breslon</t>
+          <t>Chêne_de_Breslon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le chêne de Breslon[1] est un chêne pédonculé situé sur la commune de Pléchâtel, en Bretagne, à proximité des landes de Bagaron et du  château du Plessis-Bardoult. Son âge est estimé à 430 ans.
+Le chêne de Breslon est un chêne pédonculé situé sur la commune de Pléchâtel, en Bretagne, à proximité des landes de Bagaron et du  château du Plessis-Bardoult. Son âge est estimé à 430 ans.
 Sa hauteur est d'environ 25 mètres et la circonférence de son tronc atteint les 6,50 mètres. Le diamètre de son feuillage est de 70 mètres.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Breslon</t>
+          <t>Chêne_de_Breslon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon la légende, le chêne a été planté en 1598 par le roi de France Henri IV durant son passage à Bain-de-Bretagne revenant de la signature de l’édit de Nantes.
-En août 2020, l’arbre, attaqué par le grand capricorne, perd une branche longue de 23 mètres[2].
+En août 2020, l’arbre, attaqué par le grand capricorne, perd une branche longue de 23 mètres.
 </t>
         </is>
       </c>
